--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value875.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value875.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.209032362082136</v>
+        <v>1.293826460838318</v>
       </c>
       <c r="B1">
-        <v>2.562264561769528</v>
+        <v>3.124848365783691</v>
       </c>
       <c r="C1">
-        <v>3.695623738430877</v>
+        <v>2.489050149917603</v>
       </c>
       <c r="D1">
-        <v>2.984039553016141</v>
+        <v>2.341967344284058</v>
       </c>
       <c r="E1">
-        <v>1.131321773178134</v>
+        <v>1.989774942398071</v>
       </c>
     </row>
   </sheetData>
